--- a/ping包流程.xlsx
+++ b/ping包流程.xlsx
@@ -173,13 +173,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -188,8 +188,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2209800" y="2676525"/>
-          <a:ext cx="3086100" cy="5934075"/>
+          <a:off x="2209800" y="2676524"/>
+          <a:ext cx="3086100" cy="8591551"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -486,14 +486,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -503,8 +503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2381250" y="5038725"/>
-          <a:ext cx="2686050" cy="1181100"/>
+          <a:off x="2362200" y="5124449"/>
+          <a:ext cx="2686050" cy="3324226"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -549,6 +549,82 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>记录发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包没有返回的次数的变量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>++</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（注意此变量就算没有发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包也要发，因为时间到了）；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>如果发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包的变量大于等于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>，基本可以判断断网了，断开套接字，重置没有返回的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包次数为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>如果已经存在一个没有返回的</a:t>
           </a:r>
           <a:r>
@@ -557,7 +633,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>消息包了，则记录一下下次收到</a:t>
+            <a:t>消息包了（如何判断：在客户端真正发送完</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包之后记录一个变量，在收到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>包返回包之后重置该变量），则记录一下下次收到</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -599,15 +691,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -616,8 +708,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="6657974"/>
-          <a:ext cx="2686050" cy="1800225"/>
+          <a:off x="2362200" y="8724900"/>
+          <a:ext cx="2686050" cy="2324100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,6 +751,122 @@
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
         </a:p>
         <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>记录发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ping</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>包没有返回的次数的变量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>--</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>；</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>此变量不能小于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -714,7 +922,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>包没有返回消息）， 没收到</a:t>
+            <a:t>包没有返回消息）， 每收到</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
@@ -1124,8 +1332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
